--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lannysadikin/Documents/M1 UPV/Data Aquisition/Rproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99F0781-C141-D447-ABED-8247CDB5F1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32898ADA-5981-1E4E-AD90-FA96EDACE5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Morphological traits" sheetId="1" r:id="rId1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH301"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="I253" sqref="I1:P253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11110,8 +11110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
